--- a/public/xlsx/model-report.xlsx
+++ b/public/xlsx/model-report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">fullname</t>
   </si>
@@ -37,22 +37,10 @@
     <t xml:space="preserve">adress</t>
   </si>
   <si>
-    <t xml:space="preserve">birthday</t>
-  </si>
-  <si>
     <t xml:space="preserve">organisation</t>
   </si>
   <si>
     <t xml:space="preserve">website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code_entreprise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yyyy-MM-dd</t>
   </si>
 </sst>
 </file>
@@ -133,7 +121,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -144,10 +132,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -277,16 +261,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,86 +294,9 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F11" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
